--- a/Digitalpro.xlsx
+++ b/Digitalpro.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -68,13 +68,142 @@
     <t>Currency Name</t>
   </si>
   <si>
-    <t>amazon seller services pvt ltd. 29</t>
-  </si>
-  <si>
-    <t>Amazon Prime</t>
-  </si>
-  <si>
-    <t>Automationjob0001</t>
+    <t>Platform type</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>campaignname</t>
+  </si>
+  <si>
+    <t>Buy type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Client Rate</t>
+  </si>
+  <si>
+    <t>Vendor Rate</t>
+  </si>
+  <si>
+    <t>Vendor company</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Ad Account</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>ADL Item type</t>
+  </si>
+  <si>
+    <t>ADL description</t>
+  </si>
+  <si>
+    <t>ADL amount</t>
+  </si>
+  <si>
+    <t>estimate day</t>
+  </si>
+  <si>
+    <t>estimate month</t>
+  </si>
+  <si>
+    <t>estimate year</t>
+  </si>
+  <si>
+    <t>Tax Template</t>
+  </si>
+  <si>
+    <t>Print Format</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>PO Amount</t>
+  </si>
+  <si>
+    <t>POTaxTemplate</t>
+  </si>
+  <si>
+    <t>vendorbillmonth</t>
+  </si>
+  <si>
+    <t>vendorbillyear</t>
+  </si>
+  <si>
+    <t>vendor bill number</t>
+  </si>
+  <si>
+    <t>vendor bill day</t>
+  </si>
+  <si>
+    <t>vendor bill month</t>
+  </si>
+  <si>
+    <t>vendor bill year</t>
+  </si>
+  <si>
+    <t>vendor bill amount</t>
+  </si>
+  <si>
+    <t>reversal amount</t>
+  </si>
+  <si>
+    <t>billreceiveday</t>
+  </si>
+  <si>
+    <t>billreceivemonth</t>
+  </si>
+  <si>
+    <t>billreceiveyear</t>
+  </si>
+  <si>
+    <t>billday</t>
+  </si>
+  <si>
+    <t>billmonth</t>
+  </si>
+  <si>
+    <t>billyear</t>
+  </si>
+  <si>
+    <t>paymentdueday</t>
+  </si>
+  <si>
+    <t>paymentduemonth</t>
+  </si>
+  <si>
+    <t>paymentdueyear</t>
+  </si>
+  <si>
+    <t>Bill Type</t>
+  </si>
+  <si>
+    <t>Int Bill Month</t>
+  </si>
+  <si>
+    <t>Int Bill Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBO Mart </t>
+  </si>
+  <si>
+    <t>DIATAAL</t>
+  </si>
+  <si>
+    <t>Automationjob0159</t>
   </si>
   <si>
     <t>8</t>
@@ -96,6 +225,99 @@
   </si>
   <si>
     <t>CANADA DOLLAR</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Zee5</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>facebook ireland limited</t>
+  </si>
+  <si>
+    <t>Ad-Network</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>avinashp@mediawareonline.com</t>
+  </si>
+  <si>
+    <t>IN_Carlelo_INR_GUR</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Havas_South_Mercedes</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>Digital FC</t>
+  </si>
+  <si>
+    <t>AOR on Net</t>
+  </si>
+  <si>
+    <t>Estimate1</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>6543686</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Integration</t>
   </si>
 </sst>
 </file>
@@ -713,8 +935,8 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,6 +996,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,13 +1263,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1080,9 +1309,10 @@
     <col min="51" max="51" width="21.2857142857143" customWidth="1"/>
     <col min="52" max="52" width="18.5714285714286" customWidth="1"/>
     <col min="54" max="54" width="25.1428571428571" customWidth="1"/>
+    <col min="66" max="67" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:67">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1131,52 +1361,369 @@
       <c r="P1" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="3:16">
+    <row r="2" spans="3:67">
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="17:26">
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" display="avinashp@mediawareonline.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
